--- a/LR3/table_3_3.xlsx
+++ b/LR3/table_3_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Университет\Информационные технологии\Лабораторная работа №3. Работа с табличным редактором\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952C14E4-517A-4689-9038-1EC96F959941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAEB944-6508-4244-A6B7-DA4519B70FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -383,17 +383,17 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -909,9 +909,9 @@
       <c r="E8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -929,11 +929,11 @@
       <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="J9" s="3" t="s">
         <v>29</v>
       </c>
@@ -957,11 +957,11 @@
       <c r="E10" s="3">
         <v>-2</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="J10" s="3" t="s">
         <v>30</v>
       </c>
@@ -985,11 +985,11 @@
       <c r="E11" s="3">
         <v>7</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="J11" s="3" t="s">
         <v>31</v>
       </c>
@@ -1013,11 +1013,11 @@
       <c r="E12" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1035,11 +1035,11 @@
       <c r="E13" s="3">
         <v>7</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="J13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1100,10 +1100,10 @@
       <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11"/>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -1124,10 +1124,10 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11"/>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9"/>
       <c r="J17" s="3" t="s">
         <v>35</v>
       </c>
@@ -1154,10 +1154,10 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="J18" s="3" t="s">
         <v>36</v>
       </c>
@@ -1174,18 +1174,18 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -1204,10 +1204,10 @@
       <c r="H21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="9">
         <v>1500</v>
       </c>
     </row>
@@ -1233,8 +1233,8 @@
         <v>19</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -1263,10 +1263,10 @@
       <c r="H23" s="8">
         <v>0</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="9">
         <v>500</v>
       </c>
     </row>
@@ -1297,8 +1297,8 @@
       <c r="H24" s="8">
         <v>3.2</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -1744,6 +1744,12 @@
     </scenario>
   </scenarios>
   <mergeCells count="15">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -1753,12 +1759,6 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LR3/table_3_3.xlsx
+++ b/LR3/table_3_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAEB944-6508-4244-A6B7-DA4519B70FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9C36C1-D6DC-4335-ADA5-38A33B53A8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,17 +383,17 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +678,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -909,9 +909,9 @@
       <c r="E8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -929,11 +929,11 @@
       <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="J9" s="3" t="s">
         <v>29</v>
       </c>
@@ -957,11 +957,11 @@
       <c r="E10" s="3">
         <v>-2</v>
       </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="J10" s="3" t="s">
         <v>30</v>
       </c>
@@ -985,11 +985,11 @@
       <c r="E11" s="3">
         <v>7</v>
       </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
       <c r="J11" s="3" t="s">
         <v>31</v>
       </c>
@@ -1013,11 +1013,11 @@
       <c r="E12" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1035,11 +1035,11 @@
       <c r="E13" s="3">
         <v>7</v>
       </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
       <c r="J13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1100,10 +1100,10 @@
       <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9"/>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -1124,10 +1124,10 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9"/>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11"/>
       <c r="J17" s="3" t="s">
         <v>35</v>
       </c>
@@ -1154,10 +1154,10 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9"/>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11"/>
       <c r="J18" s="3" t="s">
         <v>36</v>
       </c>
@@ -1174,18 +1174,18 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -1204,10 +1204,10 @@
       <c r="H21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="11">
         <v>1500</v>
       </c>
     </row>
@@ -1233,8 +1233,8 @@
         <v>19</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -1263,10 +1263,10 @@
       <c r="H23" s="8">
         <v>0</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="11">
         <v>500</v>
       </c>
     </row>
@@ -1297,8 +1297,8 @@
       <c r="H24" s="8">
         <v>3.2</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -1744,12 +1744,6 @@
     </scenario>
   </scenarios>
   <mergeCells count="15">
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -1759,6 +1753,12 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LR3/table_3_3.xlsx
+++ b/LR3/table_3_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9C36C1-D6DC-4335-ADA5-38A33B53A8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E689418D-3A64-41A9-B18D-6DAB83E91EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>Занятия</t>
   </si>
@@ -296,9 +296,6 @@
   </si>
   <si>
     <t>Ост ккаллории</t>
-  </si>
-  <si>
-    <t>Здоровье и счастье</t>
   </si>
 </sst>
 </file>
@@ -383,17 +380,17 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -909,9 +906,9 @@
       <c r="E8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -929,11 +926,11 @@
       <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="J9" s="3" t="s">
         <v>29</v>
       </c>
@@ -957,11 +954,11 @@
       <c r="E10" s="3">
         <v>-2</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="J10" s="3" t="s">
         <v>30</v>
       </c>
@@ -985,11 +982,11 @@
       <c r="E11" s="3">
         <v>7</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="J11" s="3" t="s">
         <v>31</v>
       </c>
@@ -1013,11 +1010,11 @@
       <c r="E12" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1035,11 +1032,11 @@
       <c r="E13" s="3">
         <v>7</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="J13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1100,10 +1097,10 @@
       <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11"/>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -1124,10 +1121,10 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11"/>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9"/>
       <c r="J17" s="3" t="s">
         <v>35</v>
       </c>
@@ -1154,10 +1151,10 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="J18" s="3" t="s">
         <v>36</v>
       </c>
@@ -1174,18 +1171,18 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -1204,10 +1201,10 @@
       <c r="H21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="9">
         <v>1500</v>
       </c>
     </row>
@@ -1233,8 +1230,8 @@
         <v>19</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -1263,10 +1260,10 @@
       <c r="H23" s="8">
         <v>0</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="9">
         <v>500</v>
       </c>
     </row>
@@ -1297,8 +1294,8 @@
       <c r="H24" s="8">
         <v>3.2</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -1470,7 +1467,7 @@
         <v>21.290521274725879</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1484,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C34" s="6" t="s">
         <v>41</v>
       </c>
@@ -1494,7 +1491,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1508,7 +1505,7 @@
         <v>18.739545938162539</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1522,7 +1519,7 @@
         <v>22.710544888542568</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C37" s="3" t="s">
         <v>44</v>
       </c>
@@ -1533,196 +1530,6 @@
         <v>44</v>
       </c>
       <c r="H37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="e">
-        <f ca="1">_xludf.MAX($B$24)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B42" s="3" t="e">
-        <f ca="1">_xludf.MAX($F$22)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <f>COUNT($D$23:$D$27,$D$29:$D$33,$D$35:$D$37)</f>
-        <v>13</v>
-      </c>
-      <c r="B43" s="3">
-        <f>COUNT($H$23:$H$27,$H$29:$H$33,$H$35:$H$37)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="b">
-        <f>$B$22&lt;=100</f>
-        <v>0</v>
-      </c>
-      <c r="B44" s="3" t="b">
-        <f>$F$22&lt;=100</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="b">
-        <f>$B$22&gt;=0</f>
-        <v>1</v>
-      </c>
-      <c r="B45" s="3" t="b">
-        <f>$F$22&gt;=0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="b">
-        <f>$B$23&lt;=100</f>
-        <v>1</v>
-      </c>
-      <c r="B46" s="3" t="b">
-        <f>$F$23&lt;=100</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="b">
-        <f>$B$23&gt;=0</f>
-        <v>1</v>
-      </c>
-      <c r="B47" s="3" t="b">
-        <f>$F$25&lt;=1000000</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="b">
-        <f>$B$24&lt;=140</f>
-        <v>1</v>
-      </c>
-      <c r="B48" s="3" t="b">
-        <f>$F$23&gt;=0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="b">
-        <f>$B$24&gt;=80</f>
-        <v>1</v>
-      </c>
-      <c r="B49" s="3" t="b">
-        <f>$F$26&lt;=100</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="b">
-        <f>$B$25&lt;=1000000</f>
-        <v>1</v>
-      </c>
-      <c r="B50" s="3" t="b">
-        <f>$F$24&lt;=140</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="b">
-        <f>$B$25&gt;=-100</f>
-        <v>1</v>
-      </c>
-      <c r="B51" s="3" t="b">
-        <f>$F$26&gt;=0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="b">
-        <f>$B$26&lt;=100</f>
-        <v>1</v>
-      </c>
-      <c r="B52" s="3" t="b">
-        <f>$F$27&gt;=0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="b">
-        <f>$B$26&gt;=0</f>
-        <v>1</v>
-      </c>
-      <c r="B53" s="3" t="b">
-        <f>$F$27&lt;=720</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="b">
-        <f>$B$27&gt;=0</f>
-        <v>1</v>
-      </c>
-      <c r="B54" s="3" t="b">
-        <f>$F$27&gt;=0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="b">
-        <f>$B$28&lt;=30000</f>
-        <v>1</v>
-      </c>
-      <c r="B55" s="3" t="b">
-        <f>$F$25&gt;=-100</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="b">
-        <f>$B$28&gt;=0</f>
-        <v>1</v>
-      </c>
-      <c r="B56" s="3" t="b">
-        <f>$F$28&lt;=30000</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
-        <f>{32767;32767;0.000001;0.01;FALSE;FALSE;FALSE;1;2;1;0.0001;TRUE}</f>
-        <v>32767</v>
-      </c>
-      <c r="B57" s="3" t="b">
-        <f>$F$24&gt;=80</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <f>{0;0;1;100;0;FALSE;FALSE;0.075;0;0;FALSE;30}</f>
-        <v>0</v>
-      </c>
-      <c r="B58" s="3" t="b">
-        <f>$F$28&gt;=0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="3">
-        <f>{32767;32767;0.000001;0.01;FALSE;FALSE;FALSE;1;2;1;0.0001;TRUE}</f>
-        <v>32767</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="3">
-        <f>{0;0;1;100;0;FALSE;FALSE;0.075;0;0;FALSE;30}</f>
         <v>0</v>
       </c>
     </row>
@@ -1744,6 +1551,12 @@
     </scenario>
   </scenarios>
   <mergeCells count="15">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -1753,12 +1566,6 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
